--- a/biology/Médecine/Pierre_Grondin/Pierre_Grondin.xlsx
+++ b/biology/Médecine/Pierre_Grondin/Pierre_Grondin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Grondin (Québec ville, 18 août 1925 - Shawinigan, 17 janvier 2006 à l'âge de 80 ans) est un chirurgien canadien. Reconnu pour sa rigueur, il est le premier chirurgien à effectuer une greffe cardiaque au Canada et le premier à y faire un pontage coronarien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1951, il obtient son doctorat en médecine de l'Université Laval. Il étudie ensuite aux États-Unis pour perfectionner son métier. Par la suite, il entame sa carrière de chirurgien à l'Hôpital Sainte-Marie de Trois-Rivières. Il reçoit sa formation de chirurgien cardiaque au Baylor College of Medecine de Houston, où il travaille auprès de Michael Debakey et Denton Cooley.
 C'est en mai 1968 qu'il effectue cette première greffe cardiaque au Canada. Cette opération se déroule à l'Institut de cardiologie de Montréal (ICM), six mois après la première greffe du cœur réalisée par Christian Barnard en Afrique du Sud.
